--- a/ISEF App WinForm/Data/Hlavicky/hltcelofkro.xlsx
+++ b/ISEF App WinForm/Data/Hlavicky/hltcelofkro.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rneme\source\repos\isef\Data Processing Library\Hlavicky\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ondrej.ferenci\AppData\Roaming\CVTI SR\ISEF Data Processing\Hlavicky\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AA4EB6-B9FC-4454-B8B2-20A7CC23E6F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="657" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="657"/>
   </bookViews>
   <sheets>
     <sheet name="Zostava l" sheetId="16" r:id="rId1"/>
@@ -71,7 +70,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -250,7 +249,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -265,175 +264,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10334" name="Freeform 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E280000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="10800000">
-          <a:off x="790575" y="219075"/>
-          <a:ext cx="5905500" cy="180975"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="T0" fmla="*/ 0 w 7860"/>
-            <a:gd name="T1" fmla="*/ 0 h 1"/>
-            <a:gd name="T2" fmla="*/ 2147483647 w 7860"/>
-            <a:gd name="T3" fmla="*/ 0 h 1"/>
-            <a:gd name="T4" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T5" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T6" fmla="*/ 0 w 7860"/>
-            <a:gd name="T7" fmla="*/ 0 h 1"/>
-            <a:gd name="T8" fmla="*/ 7860 w 7860"/>
-            <a:gd name="T9" fmla="*/ 1 h 1"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="T4">
-              <a:pos x="T0" y="T1"/>
-            </a:cxn>
-            <a:cxn ang="T5">
-              <a:pos x="T2" y="T3"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="T6" t="T7" r="T8" b="T9"/>
-          <a:pathLst>
-            <a:path w="7860" h="1">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="7860" y="0"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="22225">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10335" name="Obrázok 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F280000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="66675" y="47625"/>
-          <a:ext cx="561975" cy="581025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív balíka Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -508,23 +340,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -560,23 +375,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -752,12 +550,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hárok1"/>
   <dimension ref="A1:I1811"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+      <selection activeCell="B5" sqref="B5:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13504,6 +13302,5 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="5" min="1" max="63" man="1"/>
   </colBreaks>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>